--- a/experiment/nonconvex/MitsosBarton2006Ex323/compare/Fuertemente-Estacionario/MitsosBarton2006Ex323_Fuertemente-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/compare/Fuertemente-Estacionario/MitsosBarton2006Ex323_Fuertemente-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>-415.75240175508156</v>
       </c>
       <c r="E2">
-        <v>0.0260428</v>
+        <v>0.0394635</v>
       </c>
       <c r="F2">
-        <v>0.0431563</v>
+        <v>0.1025572</v>
       </c>
       <c r="G2">
-        <v>0.029533470414201186</v>
+        <v>0.05190893125</v>
       </c>
       <c r="H2">
         <v>6693</v>
